--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s1_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s1_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1393.702630895538</v>
+        <v>143.8026809017531</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.2910001277923584</v>
+        <v>0.1529998779296875</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.04895260151504</v>
+        <v>45.80268090175315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.05423457347752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.957912867326331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1149.630000000174</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.12</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -887,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>21.86471881248103</v>
       </c>
     </row>
     <row r="7">
@@ -895,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.48909622152298</v>
+        <v>40.04208713267367</v>
       </c>
     </row>
     <row r="8">
@@ -925,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,34 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>176.3840000000765</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>47.94200000002822</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>238.5789999999997</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>67.24200000000052</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>155.7320000000003</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>176.3839999999251</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>238.5790000000923</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26.38399999992509</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>88.57900000009234</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10.278</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.834</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1294,34 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
